--- a/SCSP/fr-cpesr-scsp.xlsx
+++ b/SCSP/fr-cpesr-scsp.xlsx
@@ -1479,7 +1479,7 @@
         <v>184.0</v>
       </c>
       <c r="J3" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="4">
@@ -1511,7 +1511,7 @@
         <v>240.0</v>
       </c>
       <c r="J4" t="n">
-        <v>104.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="5">
@@ -1543,7 +1543,7 @@
         <v>249.0</v>
       </c>
       <c r="J5" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="6">
@@ -1575,7 +1575,7 @@
         <v>76.0</v>
       </c>
       <c r="J6" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="7">
@@ -1607,7 +1607,7 @@
         <v>78.0</v>
       </c>
       <c r="J7" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,7 +1639,7 @@
         <v>193.0</v>
       </c>
       <c r="J8" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="9">
@@ -1671,7 +1671,7 @@
         <v>58.0</v>
       </c>
       <c r="J9" t="n">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="10">
@@ -1703,7 +1703,7 @@
         <v>59.0</v>
       </c>
       <c r="J10" t="n">
-        <v>64.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="11">
@@ -1735,7 +1735,7 @@
         <v>31.0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="12">
@@ -1767,7 +1767,7 @@
         <v>102.0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -1799,7 +1799,7 @@
         <v>326.0</v>
       </c>
       <c r="J13" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="14">
@@ -1831,7 +1831,7 @@
         <v>345.0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="15">
@@ -1863,7 +1863,7 @@
         <v>344.0</v>
       </c>
       <c r="J15" t="n">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="16">
@@ -1895,7 +1895,7 @@
         <v>212.0</v>
       </c>
       <c r="J16" t="n">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="17">
@@ -1927,7 +1927,7 @@
         <v>90.0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
@@ -1959,7 +1959,7 @@
         <v>132.0</v>
       </c>
       <c r="J18" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="19">
@@ -1991,7 +1991,7 @@
         <v>154.0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +2023,7 @@
         <v>157.0</v>
       </c>
       <c r="J20" t="n">
-        <v>66.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="21">
@@ -2055,7 +2055,7 @@
         <v>17.0</v>
       </c>
       <c r="J21" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         <v>106.0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -2119,7 +2119,7 @@
         <v>246.0</v>
       </c>
       <c r="J23" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="24">
@@ -2151,7 +2151,7 @@
         <v>213.0</v>
       </c>
       <c r="J24" t="n">
-        <v>79.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +2183,7 @@
         <v>225.0</v>
       </c>
       <c r="J25" t="n">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="26">
@@ -2215,7 +2215,7 @@
         <v>109.0</v>
       </c>
       <c r="J26" t="n">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="27">
@@ -2279,7 +2279,7 @@
         <v>325.0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="29">
@@ -2311,7 +2311,7 @@
         <v>270.0</v>
       </c>
       <c r="J29" t="n">
-        <v>153.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="30">
@@ -2343,7 +2343,7 @@
         <v>272.0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="31">
@@ -2375,7 +2375,7 @@
         <v>141.0</v>
       </c>
       <c r="J31" t="n">
-        <v>95.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="32">
@@ -2439,7 +2439,7 @@
         <v>217.0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="34">
@@ -2471,7 +2471,7 @@
         <v>200.0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="35">
@@ -2503,7 +2503,7 @@
         <v>242.0</v>
       </c>
       <c r="J35" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="36">
@@ -2535,7 +2535,7 @@
         <v>44.0</v>
       </c>
       <c r="J36" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="37">
@@ -2727,7 +2727,7 @@
         <v>89.0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="43">
@@ -2759,7 +2759,7 @@
         <v>274.0</v>
       </c>
       <c r="J43" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="44">
@@ -2791,7 +2791,7 @@
         <v>299.0</v>
       </c>
       <c r="J44" t="n">
-        <v>89.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="45">
@@ -2823,7 +2823,7 @@
         <v>303.0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="46">
@@ -2855,7 +2855,7 @@
         <v>164.0</v>
       </c>
       <c r="J46" t="n">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="47">
@@ -3079,7 +3079,7 @@
         <v>321.0</v>
       </c>
       <c r="J53" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="54">
@@ -3111,7 +3111,7 @@
         <v>286.0</v>
       </c>
       <c r="J54" t="n">
-        <v>120.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="55">
@@ -3143,7 +3143,7 @@
         <v>295.0</v>
       </c>
       <c r="J55" t="n">
-        <v>114.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="56">
@@ -3175,7 +3175,7 @@
         <v>260.0</v>
       </c>
       <c r="J56" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="57">
@@ -3239,7 +3239,7 @@
         <v>279.0</v>
       </c>
       <c r="J58" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="59">
@@ -3271,7 +3271,7 @@
         <v>237.0</v>
       </c>
       <c r="J59" t="n">
-        <v>139.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="60">
@@ -3303,7 +3303,7 @@
         <v>247.0</v>
       </c>
       <c r="J60" t="n">
-        <v>127.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="61">
@@ -3335,7 +3335,7 @@
         <v>45.0</v>
       </c>
       <c r="J61" t="n">
-        <v>83.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="62">
@@ -3399,7 +3399,7 @@
         <v>334.0</v>
       </c>
       <c r="J63" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="64">
@@ -3431,7 +3431,7 @@
         <v>309.0</v>
       </c>
       <c r="J64" t="n">
-        <v>126.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="65">
@@ -3463,7 +3463,7 @@
         <v>322.0</v>
       </c>
       <c r="J65" t="n">
-        <v>117.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="66">
@@ -3495,7 +3495,7 @@
         <v>251.0</v>
       </c>
       <c r="J66" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="67">
@@ -3559,7 +3559,7 @@
         <v>5.0</v>
       </c>
       <c r="J68" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="69">
@@ -3591,7 +3591,7 @@
         <v>10.0</v>
       </c>
       <c r="J69" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="70">
@@ -3623,7 +3623,7 @@
         <v>9.0</v>
       </c>
       <c r="J70" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="71">
@@ -3655,7 +3655,7 @@
         <v>4.0</v>
       </c>
       <c r="J71" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="72">
@@ -3687,7 +3687,7 @@
         <v>96.0</v>
       </c>
       <c r="J72" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="73">
@@ -3719,7 +3719,7 @@
         <v>207.0</v>
       </c>
       <c r="J73" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="74">
@@ -3751,7 +3751,7 @@
         <v>70.0</v>
       </c>
       <c r="J74" t="n">
-        <v>148.0</v>
+        <v>153.0</v>
       </c>
     </row>
     <row r="75">
@@ -3783,7 +3783,7 @@
         <v>69.0</v>
       </c>
       <c r="J75" t="n">
-        <v>142.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="76">
@@ -3815,7 +3815,7 @@
         <v>24.0</v>
       </c>
       <c r="J76" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="77">
@@ -4007,7 +4007,7 @@
         <v>144.0</v>
       </c>
       <c r="J82" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="83">
@@ -4039,7 +4039,7 @@
         <v>33.0</v>
       </c>
       <c r="J83" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="84">
@@ -4071,7 +4071,7 @@
         <v>61.0</v>
       </c>
       <c r="J84" t="n">
-        <v>58.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="85">
@@ -4103,7 +4103,7 @@
         <v>66.0</v>
       </c>
       <c r="J85" t="n">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="86">
@@ -4135,7 +4135,7 @@
         <v>38.0</v>
       </c>
       <c r="J86" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="87">
@@ -5159,7 +5159,7 @@
         <v>114.0</v>
       </c>
       <c r="J118" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="119">
@@ -5191,7 +5191,7 @@
         <v>324.0</v>
       </c>
       <c r="J119" t="n">
-        <v>158.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="120">
@@ -5223,7 +5223,7 @@
         <v>320.0</v>
       </c>
       <c r="J120" t="n">
-        <v>157.0</v>
+        <v>162.0</v>
       </c>
     </row>
     <row r="121">
@@ -5255,7 +5255,7 @@
         <v>219.0</v>
       </c>
       <c r="J121" t="n">
-        <v>111.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="122">
@@ -5607,7 +5607,7 @@
         <v>269.0</v>
       </c>
       <c r="J132" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="133">
@@ -5639,7 +5639,7 @@
         <v>222.0</v>
       </c>
       <c r="J133" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="134">
@@ -5671,7 +5671,7 @@
         <v>338.0</v>
       </c>
       <c r="J134" t="n">
-        <v>144.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="135">
@@ -5703,7 +5703,7 @@
         <v>339.0</v>
       </c>
       <c r="J135" t="n">
-        <v>140.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="136">
@@ -5735,7 +5735,7 @@
         <v>333.0</v>
       </c>
       <c r="J136" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="137">
@@ -5927,7 +5927,7 @@
         <v>84.0</v>
       </c>
       <c r="J142" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="143">
@@ -5959,7 +5959,7 @@
         <v>278.0</v>
       </c>
       <c r="J143" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="144">
@@ -5991,7 +5991,7 @@
         <v>197.0</v>
       </c>
       <c r="J144" t="n">
-        <v>86.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="145">
@@ -6023,7 +6023,7 @@
         <v>170.0</v>
       </c>
       <c r="J145" t="n">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="146">
@@ -6055,7 +6055,7 @@
         <v>88.0</v>
       </c>
       <c r="J146" t="n">
-        <v>59.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="147">
@@ -6279,7 +6279,7 @@
         <v>224.0</v>
       </c>
       <c r="J153" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="154">
@@ -6311,7 +6311,7 @@
         <v>234.0</v>
       </c>
       <c r="J154" t="n">
-        <v>129.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="155">
@@ -6343,7 +6343,7 @@
         <v>244.0</v>
       </c>
       <c r="J155" t="n">
-        <v>123.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="156">
@@ -6375,7 +6375,7 @@
         <v>268.0</v>
       </c>
       <c r="J156" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="157">
@@ -6887,7 +6887,7 @@
         <v>87.0</v>
       </c>
       <c r="J172" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="173">
@@ -6919,7 +6919,7 @@
         <v>254.0</v>
       </c>
       <c r="J173" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="174">
@@ -6951,7 +6951,7 @@
         <v>275.0</v>
       </c>
       <c r="J174" t="n">
-        <v>160.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="175">
@@ -6983,7 +6983,7 @@
         <v>282.0</v>
       </c>
       <c r="J175" t="n">
-        <v>159.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="176">
@@ -7015,7 +7015,7 @@
         <v>214.0</v>
       </c>
       <c r="J176" t="n">
-        <v>134.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="177">
@@ -7047,7 +7047,7 @@
         <v>143.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="178">
@@ -7079,7 +7079,7 @@
         <v>20.0</v>
       </c>
       <c r="J178" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="179">
@@ -7111,7 +7111,7 @@
         <v>307.0</v>
       </c>
       <c r="J179" t="n">
-        <v>84.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="180">
@@ -7143,7 +7143,7 @@
         <v>313.0</v>
       </c>
       <c r="J180" t="n">
-        <v>82.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="181">
@@ -7175,7 +7175,7 @@
         <v>280.0</v>
       </c>
       <c r="J181" t="n">
-        <v>61.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="182">
@@ -7186,7 +7186,7 @@
         <v>395</v>
       </c>
       <c r="C182" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D182" t="s">
         <v>435</v>
@@ -7207,7 +7207,7 @@
         <v>129.0</v>
       </c>
       <c r="J182" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="183">
@@ -7218,7 +7218,7 @@
         <v>395</v>
       </c>
       <c r="C183" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D183" t="s">
         <v>435</v>
@@ -7239,7 +7239,7 @@
         <v>167.0</v>
       </c>
       <c r="J183" t="n">
-        <v>33.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="184">
@@ -7250,7 +7250,7 @@
         <v>395</v>
       </c>
       <c r="C184" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D184" t="s">
         <v>435</v>
@@ -7271,7 +7271,7 @@
         <v>287.0</v>
       </c>
       <c r="J184" t="n">
-        <v>73.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="185">
@@ -7282,7 +7282,7 @@
         <v>395</v>
       </c>
       <c r="C185" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D185" t="s">
         <v>435</v>
@@ -7303,7 +7303,7 @@
         <v>293.0</v>
       </c>
       <c r="J185" t="n">
-        <v>70.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="186">
@@ -7314,7 +7314,7 @@
         <v>395</v>
       </c>
       <c r="C186" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D186" t="s">
         <v>435</v>
@@ -7335,7 +7335,7 @@
         <v>264.0</v>
       </c>
       <c r="J186" t="n">
-        <v>53.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="187">
@@ -7367,7 +7367,7 @@
         <v>110.0</v>
       </c>
       <c r="J187" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="188">
@@ -7399,7 +7399,7 @@
         <v>175.0</v>
       </c>
       <c r="J188" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="189">
@@ -7431,7 +7431,7 @@
         <v>13.0</v>
       </c>
       <c r="J189" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="190">
@@ -7463,7 +7463,7 @@
         <v>14.0</v>
       </c>
       <c r="J190" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="191">
@@ -7495,7 +7495,7 @@
         <v>12.0</v>
       </c>
       <c r="J191" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="192">
@@ -7559,7 +7559,7 @@
         <v>248.0</v>
       </c>
       <c r="J193" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="194">
@@ -7591,7 +7591,7 @@
         <v>119.0</v>
       </c>
       <c r="J194" t="n">
-        <v>115.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="195">
@@ -7623,7 +7623,7 @@
         <v>104.0</v>
       </c>
       <c r="J195" t="n">
-        <v>109.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="196">
@@ -7655,7 +7655,7 @@
         <v>35.0</v>
       </c>
       <c r="J196" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="197">
@@ -7719,7 +7719,7 @@
         <v>179.0</v>
       </c>
       <c r="J198" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="199">
@@ -7751,7 +7751,7 @@
         <v>227.0</v>
       </c>
       <c r="J199" t="n">
-        <v>130.5</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="200">
@@ -7783,7 +7783,7 @@
         <v>271.0</v>
       </c>
       <c r="J200" t="n">
-        <v>130.5</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="201">
@@ -7815,7 +7815,7 @@
         <v>121.0</v>
       </c>
       <c r="J201" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="202">
@@ -7879,7 +7879,7 @@
         <v>277.0</v>
       </c>
       <c r="J203" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="204">
@@ -7911,7 +7911,7 @@
         <v>336.0</v>
       </c>
       <c r="J204" t="n">
-        <v>147.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="205">
@@ -7943,7 +7943,7 @@
         <v>340.0</v>
       </c>
       <c r="J205" t="n">
-        <v>143.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="206">
@@ -7975,7 +7975,7 @@
         <v>341.0</v>
       </c>
       <c r="J206" t="n">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="207">
@@ -8039,7 +8039,7 @@
         <v>77.0</v>
       </c>
       <c r="J208" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="209">
@@ -8071,7 +8071,7 @@
         <v>302.0</v>
       </c>
       <c r="J209" t="n">
-        <v>145.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="210">
@@ -8103,7 +8103,7 @@
         <v>301.0</v>
       </c>
       <c r="J210" t="n">
-        <v>137.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="211">
@@ -8135,7 +8135,7 @@
         <v>267.0</v>
       </c>
       <c r="J211" t="n">
-        <v>100.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="212">
@@ -8167,7 +8167,7 @@
         <v>32.0</v>
       </c>
       <c r="J212" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="213">
@@ -8199,7 +8199,7 @@
         <v>43.0</v>
       </c>
       <c r="J213" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="214">
@@ -8231,7 +8231,7 @@
         <v>40.0</v>
       </c>
       <c r="J214" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="215">
@@ -8263,7 +8263,7 @@
         <v>46.0</v>
       </c>
       <c r="J215" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="216">
@@ -8295,7 +8295,7 @@
         <v>30.0</v>
       </c>
       <c r="J216" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="217">
@@ -8359,7 +8359,7 @@
         <v>81.0</v>
       </c>
       <c r="J218" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="219">
@@ -8391,7 +8391,7 @@
         <v>215.0</v>
       </c>
       <c r="J219" t="n">
-        <v>105.5</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="220">
@@ -8423,7 +8423,7 @@
         <v>257.0</v>
       </c>
       <c r="J220" t="n">
-        <v>105.5</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="221">
@@ -8455,7 +8455,7 @@
         <v>204.0</v>
       </c>
       <c r="J221" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="222">
@@ -8487,7 +8487,7 @@
         <v>15.0</v>
       </c>
       <c r="J222" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="223">
@@ -8519,7 +8519,7 @@
         <v>156.0</v>
       </c>
       <c r="J223" t="n">
-        <v>138.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="224">
@@ -8551,7 +8551,7 @@
         <v>128.0</v>
       </c>
       <c r="J224" t="n">
-        <v>132.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="225">
@@ -8583,7 +8583,7 @@
         <v>223.0</v>
       </c>
       <c r="J225" t="n">
-        <v>112.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="226">
@@ -8615,7 +8615,7 @@
         <v>134.0</v>
       </c>
       <c r="J226" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="227">
@@ -8647,7 +8647,7 @@
         <v>241.0</v>
       </c>
       <c r="J227" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="228">
@@ -8679,7 +8679,7 @@
         <v>328.0</v>
       </c>
       <c r="J228" t="n">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="229">
@@ -8711,7 +8711,7 @@
         <v>331.0</v>
       </c>
       <c r="J229" t="n">
-        <v>71.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="230">
@@ -8743,7 +8743,7 @@
         <v>273.0</v>
       </c>
       <c r="J230" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="231">
@@ -8775,7 +8775,7 @@
         <v>37.0</v>
       </c>
       <c r="J231" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="232">
@@ -8807,7 +8807,7 @@
         <v>137.0</v>
       </c>
       <c r="J232" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="233">
@@ -8839,7 +8839,7 @@
         <v>304.0</v>
       </c>
       <c r="J233" t="n">
-        <v>150.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="234">
@@ -8871,7 +8871,7 @@
         <v>308.0</v>
       </c>
       <c r="J234" t="n">
-        <v>149.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="235">
@@ -8903,7 +8903,7 @@
         <v>306.0</v>
       </c>
       <c r="J235" t="n">
-        <v>119.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="236">
@@ -8967,7 +8967,7 @@
         <v>202.0</v>
       </c>
       <c r="J237" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="238">
@@ -8999,7 +8999,7 @@
         <v>192.0</v>
       </c>
       <c r="J238" t="n">
-        <v>146.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="239">
@@ -9031,7 +9031,7 @@
         <v>195.0</v>
       </c>
       <c r="J239" t="n">
-        <v>141.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="240">
@@ -9063,7 +9063,7 @@
         <v>159.0</v>
       </c>
       <c r="J240" t="n">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="241">
@@ -9095,7 +9095,7 @@
         <v>94.0</v>
       </c>
       <c r="J241" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="242">
@@ -9127,7 +9127,7 @@
         <v>292.0</v>
       </c>
       <c r="J242" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="243">
@@ -9159,7 +9159,7 @@
         <v>182.0</v>
       </c>
       <c r="J243" t="n">
-        <v>108.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="244">
@@ -9191,7 +9191,7 @@
         <v>198.0</v>
       </c>
       <c r="J244" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="245">
@@ -9223,7 +9223,7 @@
         <v>138.0</v>
       </c>
       <c r="J245" t="n">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="246">
@@ -9287,7 +9287,7 @@
         <v>262.0</v>
       </c>
       <c r="J247" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="248">
@@ -9319,7 +9319,7 @@
         <v>190.0</v>
       </c>
       <c r="J248" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="249">
@@ -9351,7 +9351,7 @@
         <v>186.0</v>
       </c>
       <c r="J249" t="n">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="250">
@@ -9383,7 +9383,7 @@
         <v>73.0</v>
       </c>
       <c r="J250" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="251">
@@ -9447,7 +9447,7 @@
         <v>283.0</v>
       </c>
       <c r="J252" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="253">
@@ -9479,7 +9479,7 @@
         <v>238.0</v>
       </c>
       <c r="J253" t="n">
-        <v>135.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="254">
@@ -9511,7 +9511,7 @@
         <v>239.0</v>
       </c>
       <c r="J254" t="n">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="255">
@@ -9543,7 +9543,7 @@
         <v>49.0</v>
       </c>
       <c r="J255" t="n">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="256">
@@ -9575,7 +9575,7 @@
         <v>11.0</v>
       </c>
       <c r="J256" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="257">
@@ -9607,7 +9607,7 @@
         <v>203.0</v>
       </c>
       <c r="J257" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="258">
@@ -9639,7 +9639,7 @@
         <v>107.0</v>
       </c>
       <c r="J258" t="n">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="259">
@@ -9671,7 +9671,7 @@
         <v>100.0</v>
       </c>
       <c r="J259" t="n">
-        <v>94.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="260">
@@ -9703,7 +9703,7 @@
         <v>52.0</v>
       </c>
       <c r="J260" t="n">
-        <v>92.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="261">
@@ -9895,7 +9895,7 @@
         <v>103.0</v>
       </c>
       <c r="J266" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="267">
@@ -9927,7 +9927,7 @@
         <v>319.0</v>
       </c>
       <c r="J267" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="268">
@@ -9959,7 +9959,7 @@
         <v>185.0</v>
       </c>
       <c r="J268" t="n">
-        <v>76.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="269">
@@ -9991,7 +9991,7 @@
         <v>187.0</v>
       </c>
       <c r="J269" t="n">
-        <v>68.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="270">
@@ -10023,7 +10023,7 @@
         <v>25.0</v>
       </c>
       <c r="J270" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="271">
@@ -10055,7 +10055,7 @@
         <v>116.0</v>
       </c>
       <c r="J271" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="272">
@@ -10087,7 +10087,7 @@
         <v>284.0</v>
       </c>
       <c r="J272" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="273">
@@ -10119,7 +10119,7 @@
         <v>42.0</v>
       </c>
       <c r="J273" t="n">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="274">
@@ -10151,7 +10151,7 @@
         <v>47.0</v>
       </c>
       <c r="J274" t="n">
-        <v>72.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="275">
@@ -10183,7 +10183,7 @@
         <v>29.0</v>
       </c>
       <c r="J275" t="n">
-        <v>55.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="276">
@@ -10247,7 +10247,7 @@
         <v>54.0</v>
       </c>
       <c r="J277" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="278">
@@ -10279,7 +10279,7 @@
         <v>250.0</v>
       </c>
       <c r="J278" t="n">
-        <v>154.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="279">
@@ -10311,7 +10311,7 @@
         <v>256.0</v>
       </c>
       <c r="J279" t="n">
-        <v>152.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="280">
@@ -10343,7 +10343,7 @@
         <v>218.0</v>
       </c>
       <c r="J280" t="n">
-        <v>116.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="281">
@@ -10407,7 +10407,7 @@
         <v>98.0</v>
       </c>
       <c r="J282" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="283">
@@ -10439,7 +10439,7 @@
         <v>294.0</v>
       </c>
       <c r="J283" t="n">
-        <v>113.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="284">
@@ -10471,7 +10471,7 @@
         <v>298.0</v>
       </c>
       <c r="J284" t="n">
-        <v>110.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="285">
@@ -10503,7 +10503,7 @@
         <v>253.0</v>
       </c>
       <c r="J285" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="286">
@@ -10567,7 +10567,7 @@
         <v>147.0</v>
       </c>
       <c r="J287" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="288">
@@ -10599,7 +10599,7 @@
         <v>142.0</v>
       </c>
       <c r="J288" t="n">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="289">
@@ -10631,7 +10631,7 @@
         <v>146.0</v>
       </c>
       <c r="J289" t="n">
-        <v>118.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="290">
@@ -10663,7 +10663,7 @@
         <v>62.0</v>
       </c>
       <c r="J290" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="291">
@@ -10887,7 +10887,7 @@
         <v>91.0</v>
       </c>
       <c r="J297" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="298">
@@ -10919,7 +10919,7 @@
         <v>312.0</v>
       </c>
       <c r="J298" t="n">
-        <v>156.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="299">
@@ -10951,7 +10951,7 @@
         <v>317.0</v>
       </c>
       <c r="J299" t="n">
-        <v>155.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="300">
@@ -10983,7 +10983,7 @@
         <v>300.0</v>
       </c>
       <c r="J300" t="n">
-        <v>121.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="301">
@@ -11047,7 +11047,7 @@
         <v>289.0</v>
       </c>
       <c r="J302" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="303">
@@ -11079,7 +11079,7 @@
         <v>276.0</v>
       </c>
       <c r="J303" t="n">
-        <v>136.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="304">
@@ -11111,7 +11111,7 @@
         <v>291.0</v>
       </c>
       <c r="J304" t="n">
-        <v>124.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="305">
@@ -11143,7 +11143,7 @@
         <v>140.0</v>
       </c>
       <c r="J305" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="306">
@@ -11175,7 +11175,7 @@
         <v>135.0</v>
       </c>
       <c r="J306" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="307">
@@ -11207,7 +11207,7 @@
         <v>166.0</v>
       </c>
       <c r="J307" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="308">
@@ -11239,7 +11239,7 @@
         <v>305.0</v>
       </c>
       <c r="J308" t="n">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="309">
@@ -11271,7 +11271,7 @@
         <v>310.0</v>
       </c>
       <c r="J309" t="n">
-        <v>81.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="310">
@@ -11303,7 +11303,7 @@
         <v>265.0</v>
       </c>
       <c r="J310" t="n">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="311">
@@ -11367,7 +11367,7 @@
         <v>228.0</v>
       </c>
       <c r="J312" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="313">
@@ -11399,7 +11399,7 @@
         <v>191.0</v>
       </c>
       <c r="J313" t="n">
-        <v>133.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="314">
@@ -11431,7 +11431,7 @@
         <v>196.0</v>
       </c>
       <c r="J314" t="n">
-        <v>128.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="315">
@@ -11463,7 +11463,7 @@
         <v>189.0</v>
       </c>
       <c r="J315" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="316">
@@ -11495,7 +11495,7 @@
         <v>163.0</v>
       </c>
       <c r="J316" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="317">
@@ -11527,7 +11527,7 @@
         <v>211.0</v>
       </c>
       <c r="J317" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="318">
@@ -11559,7 +11559,7 @@
         <v>22.0</v>
       </c>
       <c r="J318" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="319">
@@ -11591,7 +11591,7 @@
         <v>36.0</v>
       </c>
       <c r="J319" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="320">
@@ -11623,7 +11623,7 @@
         <v>16.0</v>
       </c>
       <c r="J320" t="n">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="321">
@@ -11655,7 +11655,7 @@
         <v>26.0</v>
       </c>
       <c r="J321" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="322">
@@ -11687,7 +11687,7 @@
         <v>173.0</v>
       </c>
       <c r="J322" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="323">
@@ -11719,7 +11719,7 @@
         <v>199.0</v>
       </c>
       <c r="J323" t="n">
-        <v>65.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="324">
@@ -11751,7 +11751,7 @@
         <v>205.0</v>
       </c>
       <c r="J324" t="n">
-        <v>63.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="325">
@@ -11783,7 +11783,7 @@
         <v>133.0</v>
       </c>
       <c r="J325" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="326">
@@ -11815,7 +11815,7 @@
         <v>18.0</v>
       </c>
       <c r="J326" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="327">
@@ -11847,7 +11847,7 @@
         <v>19.0</v>
       </c>
       <c r="J327" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="328">
@@ -11879,7 +11879,7 @@
         <v>8.0</v>
       </c>
       <c r="J328" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="329">
@@ -11911,7 +11911,7 @@
         <v>7.0</v>
       </c>
       <c r="J329" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="330">
@@ -11943,7 +11943,7 @@
         <v>6.0</v>
       </c>
       <c r="J330" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="331">
@@ -11975,7 +11975,7 @@
         <v>60.0</v>
       </c>
       <c r="J331" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="332">
@@ -12007,7 +12007,7 @@
         <v>21.0</v>
       </c>
       <c r="J332" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="333">
@@ -12039,7 +12039,7 @@
         <v>118.0</v>
       </c>
       <c r="J333" t="n">
-        <v>107.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="334">
@@ -12071,7 +12071,7 @@
         <v>145.0</v>
       </c>
       <c r="J334" t="n">
-        <v>103.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="335">
@@ -12103,7 +12103,7 @@
         <v>231.0</v>
       </c>
       <c r="J335" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="336">
@@ -12135,7 +12135,7 @@
         <v>112.0</v>
       </c>
       <c r="J336" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="337">
@@ -12167,7 +12167,7 @@
         <v>188.0</v>
       </c>
       <c r="J337" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="338">
@@ -12199,7 +12199,7 @@
         <v>80.0</v>
       </c>
       <c r="J338" t="n">
-        <v>77.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="339">
@@ -12231,7 +12231,7 @@
         <v>71.0</v>
       </c>
       <c r="J339" t="n">
-        <v>74.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="340">
@@ -12263,7 +12263,7 @@
         <v>57.0</v>
       </c>
       <c r="J340" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="341">
@@ -12295,7 +12295,7 @@
         <v>1.0</v>
       </c>
       <c r="J341" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="342">
@@ -12327,7 +12327,7 @@
         <v>348.0</v>
       </c>
       <c r="J342" t="n">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="343">
@@ -12359,7 +12359,7 @@
         <v>349.5</v>
       </c>
       <c r="J343" t="n">
-        <v>99.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="344">
@@ -12391,7 +12391,7 @@
         <v>349.5</v>
       </c>
       <c r="J344" t="n">
-        <v>96.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="345">
@@ -12423,7 +12423,7 @@
         <v>235.0</v>
       </c>
       <c r="J345" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="346">
@@ -12455,7 +12455,7 @@
         <v>28.0</v>
       </c>
       <c r="J346" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="347">
@@ -12487,7 +12487,7 @@
         <v>332.0</v>
       </c>
       <c r="J347" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="348">
@@ -12519,7 +12519,7 @@
         <v>209.5</v>
       </c>
       <c r="J348" t="n">
-        <v>97.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="349">
@@ -12551,7 +12551,7 @@
         <v>209.5</v>
       </c>
       <c r="J349" t="n">
-        <v>97.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="350">
@@ -12583,7 +12583,7 @@
         <v>3.0</v>
       </c>
       <c r="J350" t="n">
-        <v>88.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="351">
@@ -12615,7 +12615,7 @@
         <v>233.0</v>
       </c>
       <c r="J351" t="n">
-        <v>93.0</v>
+        <v>88.0</v>
       </c>
     </row>
   </sheetData>
